--- a/forms/Form-3DA-multiple.xlsx
+++ b/forms/Form-3DA-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA3697E-FA8D-41AC-B84E-742E125B277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF491C9-C93C-4DDE-A884-BF299B8A71A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="iDUEB36Tg6Fq49GBSSjSX4WaeYZypxEO4ytihSLd0MzE563An8wKW/Vc15EJLa1ODp4aG1zBQhFXgrBIWgpe9w==" workbookSaltValue="icTV95uKRvveyy8jCyTdwA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -936,6 +936,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,7 +1278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1635,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:Z55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -1764,11 +1767,11 @@
       </c>
       <c r="H4" s="88"/>
       <c r="I4" s="89"/>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="87" t="s">
         <v>38</v>
       </c>
@@ -3216,7 +3219,7 @@
       <c r="Z55" s="60"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67IzirLU+Q+VZjPWCD1CSZku+Bs7km6f5yDyreJ7xf8wE1L8PP5hGsnHHXL7ffhnBTFaTMXTec5+k2oCVOeS1w==" saltValue="qgUKxSk7XyRG1OsmmNe4BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IeRD1x/JbnIwb/x3FjkSmnH0zRpVjkHoUKbeIXGFZABJvX/EKyhsXGe5u5VMA9WpXSQyh2bti3a5hM5TONlAOA==" saltValue="B7i6gBijKx8jAggo851Zbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:Z3"/>
     <mergeCell ref="B4:F4"/>

--- a/forms/Form-3DA-multiple.xlsx
+++ b/forms/Form-3DA-multiple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB326F35-CF00-4F5B-B90E-337C892ABCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A257361-7A0A-40A9-8CA7-2FE92B53F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,9 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Mesh</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1122,6 +1122,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1186,50 +1224,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,7 +1571,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,39 +1586,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="B2" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
       <c r="C4" s="33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="37"/>
     </row>
@@ -1640,7 +1634,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1659,15 +1653,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="103"/>
+      <c r="D8" s="115"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="103"/>
+      <c r="F8" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="115"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,12 +1680,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>3</v>
+      <c r="F10" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="20"/>
@@ -1708,7 +1702,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="24"/>
@@ -1719,7 +1713,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="24"/>
@@ -1748,7 +1742,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -1768,12 +1762,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="24"/>
       <c r="F18" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="20"/>
@@ -1781,7 +1775,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="24"/>
@@ -1792,7 +1786,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="24"/>
@@ -1821,7 +1815,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="21"/>
       <c r="C23" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="24"/>
@@ -1841,7 +1835,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="24"/>
@@ -1870,7 +1864,7 @@
     <row r="28" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
@@ -1889,11 +1883,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="102"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1904,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kntjFhod0mN40XcU0EyZnYUKpM3SFWFqcVai6IeObvBqshpsp7gy7G6MgcAtropJ5tLTrOaNm1vVb6+t1y7ETA==" saltValue="RYMqR3/80z9PHkR5Ntn1XA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4VdyBuMFK5ic78v0b7O7IkMXjspkZgKr8npds3Uci72XW2a9Ru363WoH+aZWtLYwG+ZP9v63kT5nDMcBNYGbfA==" saltValue="DqdQC2csG9APUywqOzllew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>
@@ -1947,9 +1941,9 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="127" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="127" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="133" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="104" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="104" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="110" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="11" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
@@ -1979,7 +1973,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="128"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="50"/>
@@ -2106,35 +2100,35 @@
       <c r="DY1"/>
     </row>
     <row r="2" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
+      <c r="B2" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
       <c r="AC2" s="74"/>
       <c r="AD2" s="74"/>
       <c r="AE2" s="74"/>
@@ -2238,142 +2232,142 @@
       <c r="DY2" s="75"/>
     </row>
     <row r="3" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="113"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
       <c r="AC3" s="77"/>
-      <c r="AD3" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="111"/>
-      <c r="AT3" s="111"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="111"/>
-      <c r="AW3" s="111"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="111"/>
-      <c r="BD3" s="111"/>
-      <c r="BE3" s="111"/>
-      <c r="BF3" s="111"/>
-      <c r="BG3" s="111"/>
-      <c r="BH3" s="111"/>
-      <c r="BI3" s="111"/>
-      <c r="BJ3" s="111"/>
-      <c r="BK3" s="111"/>
-      <c r="BL3" s="111"/>
-      <c r="BM3" s="111"/>
-      <c r="BN3" s="111"/>
-      <c r="BO3" s="111"/>
-      <c r="BP3" s="111"/>
-      <c r="BQ3" s="111"/>
-      <c r="BR3" s="111"/>
-      <c r="BS3" s="111"/>
-      <c r="BT3" s="111"/>
-      <c r="BU3" s="111"/>
-      <c r="BV3" s="111"/>
-      <c r="BW3" s="111"/>
-      <c r="BX3" s="111"/>
-      <c r="BY3" s="111"/>
-      <c r="BZ3" s="111"/>
-      <c r="CA3" s="111"/>
-      <c r="CB3" s="111"/>
-      <c r="CC3" s="111"/>
-      <c r="CD3" s="111"/>
-      <c r="CE3" s="111"/>
-      <c r="CF3" s="111"/>
-      <c r="CG3" s="111"/>
-      <c r="CH3" s="111"/>
-      <c r="CI3" s="111"/>
-      <c r="CJ3" s="111"/>
-      <c r="CK3" s="111"/>
-      <c r="CL3" s="111"/>
-      <c r="CM3" s="111"/>
-      <c r="CN3" s="111"/>
-      <c r="CO3" s="111"/>
-      <c r="CP3" s="111"/>
-      <c r="CQ3" s="111"/>
-      <c r="CR3" s="111"/>
-      <c r="CS3" s="111"/>
-      <c r="CT3" s="111"/>
-      <c r="CU3" s="111"/>
-      <c r="CV3" s="111"/>
-      <c r="CW3" s="111"/>
-      <c r="CX3" s="111"/>
-      <c r="CY3" s="111"/>
-      <c r="CZ3" s="111"/>
-      <c r="DA3" s="111"/>
-      <c r="DB3" s="111"/>
-      <c r="DC3" s="111"/>
-      <c r="DD3" s="111"/>
-      <c r="DE3" s="111"/>
-      <c r="DF3" s="111"/>
-      <c r="DG3" s="111"/>
-      <c r="DH3" s="111"/>
-      <c r="DI3" s="111"/>
-      <c r="DJ3" s="111"/>
-      <c r="DK3" s="111"/>
-      <c r="DL3" s="111"/>
-      <c r="DM3" s="111"/>
-      <c r="DN3" s="111"/>
-      <c r="DO3" s="111"/>
-      <c r="DP3" s="111"/>
-      <c r="DQ3" s="111"/>
-      <c r="DR3" s="111"/>
-      <c r="DS3" s="111"/>
-      <c r="DT3" s="111"/>
-      <c r="DU3" s="111"/>
-      <c r="DV3" s="111"/>
-      <c r="DW3" s="111"/>
-      <c r="DX3" s="111"/>
-      <c r="DY3" s="112"/>
+      <c r="AD3" s="122" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
+      <c r="AR3" s="123"/>
+      <c r="AS3" s="123"/>
+      <c r="AT3" s="123"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="123"/>
+      <c r="AW3" s="123"/>
+      <c r="AX3" s="123"/>
+      <c r="AY3" s="123"/>
+      <c r="AZ3" s="123"/>
+      <c r="BA3" s="123"/>
+      <c r="BB3" s="123"/>
+      <c r="BC3" s="123"/>
+      <c r="BD3" s="123"/>
+      <c r="BE3" s="123"/>
+      <c r="BF3" s="123"/>
+      <c r="BG3" s="123"/>
+      <c r="BH3" s="123"/>
+      <c r="BI3" s="123"/>
+      <c r="BJ3" s="123"/>
+      <c r="BK3" s="123"/>
+      <c r="BL3" s="123"/>
+      <c r="BM3" s="123"/>
+      <c r="BN3" s="123"/>
+      <c r="BO3" s="123"/>
+      <c r="BP3" s="123"/>
+      <c r="BQ3" s="123"/>
+      <c r="BR3" s="123"/>
+      <c r="BS3" s="123"/>
+      <c r="BT3" s="123"/>
+      <c r="BU3" s="123"/>
+      <c r="BV3" s="123"/>
+      <c r="BW3" s="123"/>
+      <c r="BX3" s="123"/>
+      <c r="BY3" s="123"/>
+      <c r="BZ3" s="123"/>
+      <c r="CA3" s="123"/>
+      <c r="CB3" s="123"/>
+      <c r="CC3" s="123"/>
+      <c r="CD3" s="123"/>
+      <c r="CE3" s="123"/>
+      <c r="CF3" s="123"/>
+      <c r="CG3" s="123"/>
+      <c r="CH3" s="123"/>
+      <c r="CI3" s="123"/>
+      <c r="CJ3" s="123"/>
+      <c r="CK3" s="123"/>
+      <c r="CL3" s="123"/>
+      <c r="CM3" s="123"/>
+      <c r="CN3" s="123"/>
+      <c r="CO3" s="123"/>
+      <c r="CP3" s="123"/>
+      <c r="CQ3" s="123"/>
+      <c r="CR3" s="123"/>
+      <c r="CS3" s="123"/>
+      <c r="CT3" s="123"/>
+      <c r="CU3" s="123"/>
+      <c r="CV3" s="123"/>
+      <c r="CW3" s="123"/>
+      <c r="CX3" s="123"/>
+      <c r="CY3" s="123"/>
+      <c r="CZ3" s="123"/>
+      <c r="DA3" s="123"/>
+      <c r="DB3" s="123"/>
+      <c r="DC3" s="123"/>
+      <c r="DD3" s="123"/>
+      <c r="DE3" s="123"/>
+      <c r="DF3" s="123"/>
+      <c r="DG3" s="123"/>
+      <c r="DH3" s="123"/>
+      <c r="DI3" s="123"/>
+      <c r="DJ3" s="123"/>
+      <c r="DK3" s="123"/>
+      <c r="DL3" s="123"/>
+      <c r="DM3" s="123"/>
+      <c r="DN3" s="123"/>
+      <c r="DO3" s="123"/>
+      <c r="DP3" s="123"/>
+      <c r="DQ3" s="123"/>
+      <c r="DR3" s="123"/>
+      <c r="DS3" s="123"/>
+      <c r="DT3" s="123"/>
+      <c r="DU3" s="123"/>
+      <c r="DV3" s="123"/>
+      <c r="DW3" s="123"/>
+      <c r="DX3" s="123"/>
+      <c r="DY3" s="124"/>
     </row>
     <row r="4" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="68"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="129"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="76"/>
       <c r="G4" s="76"/>
       <c r="H4" s="76"/>
@@ -2398,7 +2392,7 @@
       <c r="AA4" s="76"/>
       <c r="AB4" s="76"/>
       <c r="AC4" s="95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="80"/>
       <c r="AE4" s="81"/>
@@ -2503,9 +2497,9 @@
     </row>
     <row r="5" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="68"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="129"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="76"/>
       <c r="G5" s="76"/>
       <c r="H5" s="76"/>
@@ -2530,7 +2524,7 @@
       <c r="AA5" s="76"/>
       <c r="AB5" s="76"/>
       <c r="AC5" s="96" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD5" s="83"/>
       <c r="AE5" s="84"/>
@@ -2634,45 +2628,45 @@
       <c r="DY5" s="85"/>
     </row>
     <row r="6" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="118" t="s">
+      <c r="B6" s="127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="128"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="119"/>
-      <c r="T6" s="119"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="118" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="119"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="119"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
       <c r="AC6" s="97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AD6" s="83"/>
       <c r="AE6" s="84"/>
@@ -2777,88 +2771,88 @@
     </row>
     <row r="7" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="130" t="s">
+      <c r="H7" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="121" t="s">
+      <c r="U7" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="66" t="s">
+      <c r="W7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="X7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Z7" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="AA7" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="U7" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="70" t="s">
-        <v>33</v>
-      </c>
       <c r="AC7" s="98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD7" s="86"/>
       <c r="AE7" s="87"/>
@@ -2963,9 +2957,9 @@
     </row>
     <row r="8" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="131"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="14"/>
       <c r="G8" s="16"/>
       <c r="H8" s="38"/>
@@ -3093,9 +3087,9 @@
     </row>
     <row r="9" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="132"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="12"/>
       <c r="G9" s="10"/>
       <c r="H9" s="39"/>
@@ -3122,9 +3116,9 @@
     </row>
     <row r="10" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="132"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="12"/>
       <c r="G10" s="10"/>
       <c r="H10" s="39"/>
@@ -3151,9 +3145,9 @@
     </row>
     <row r="11" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="132"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="12"/>
       <c r="G11" s="10"/>
       <c r="H11" s="39"/>
@@ -3180,9 +3174,9 @@
     </row>
     <row r="12" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="132"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="12"/>
       <c r="G12" s="10"/>
       <c r="H12" s="39"/>
@@ -3209,9 +3203,9 @@
     </row>
     <row r="13" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="132"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="12"/>
       <c r="G13" s="10"/>
       <c r="H13" s="39"/>
@@ -3238,9 +3232,9 @@
     </row>
     <row r="14" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="132"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
       <c r="H14" s="39"/>
@@ -3267,9 +3261,9 @@
     </row>
     <row r="15" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="132"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="12"/>
       <c r="G15" s="10"/>
       <c r="H15" s="39"/>
@@ -3296,9 +3290,9 @@
     </row>
     <row r="16" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="132"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="12"/>
       <c r="G16" s="10"/>
       <c r="H16" s="39"/>
@@ -3325,9 +3319,9 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="132"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
       <c r="H17" s="39"/>
@@ -3354,9 +3348,9 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="132"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="12"/>
       <c r="G18" s="10"/>
       <c r="H18" s="39"/>
@@ -3383,9 +3377,9 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="132"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="12"/>
       <c r="G19" s="10"/>
       <c r="H19" s="39"/>
@@ -3412,9 +3406,9 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="132"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="12"/>
       <c r="G20" s="10"/>
       <c r="H20" s="39"/>
@@ -3441,9 +3435,9 @@
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="132"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="12"/>
       <c r="G21" s="10"/>
       <c r="H21" s="39"/>
@@ -3470,9 +3464,9 @@
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="12"/>
       <c r="G22" s="10"/>
       <c r="H22" s="39"/>
@@ -3499,9 +3493,9 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="132"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="12"/>
       <c r="G23" s="10"/>
       <c r="H23" s="39"/>
@@ -3528,9 +3522,9 @@
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="132"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="12"/>
       <c r="G24" s="10"/>
       <c r="H24" s="39"/>
@@ -3557,9 +3551,9 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
       <c r="H25" s="39"/>
@@ -3586,9 +3580,9 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="12"/>
       <c r="G26" s="10"/>
       <c r="H26" s="39"/>
@@ -3615,9 +3609,9 @@
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="12"/>
       <c r="G27" s="10"/>
       <c r="H27" s="39"/>
@@ -3644,9 +3638,9 @@
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
       <c r="H28" s="39"/>
@@ -3673,9 +3667,9 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="12"/>
       <c r="G29" s="10"/>
       <c r="H29" s="39"/>
@@ -3702,9 +3696,9 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="132"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
       <c r="H30" s="39"/>
@@ -3731,9 +3725,9 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="132"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="109"/>
       <c r="F31" s="12"/>
       <c r="G31" s="10"/>
       <c r="H31" s="39"/>
@@ -3760,9 +3754,9 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="12"/>
       <c r="G32" s="10"/>
       <c r="H32" s="39"/>
@@ -3789,9 +3783,9 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="12"/>
       <c r="G33" s="10"/>
       <c r="H33" s="39"/>
@@ -3818,9 +3812,9 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="12"/>
       <c r="G34" s="10"/>
       <c r="H34" s="39"/>
@@ -3847,9 +3841,9 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
       <c r="H35" s="39"/>
@@ -3876,9 +3870,9 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
       <c r="H36" s="39"/>
@@ -3905,9 +3899,9 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="132"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
       <c r="H37" s="39"/>
@@ -3934,9 +3928,9 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="132"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
       <c r="H38" s="39"/>
@@ -3963,9 +3957,9 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
       <c r="H39" s="39"/>
@@ -3992,9 +3986,9 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
       <c r="H40" s="39"/>
@@ -4021,9 +4015,9 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
       <c r="H41" s="39"/>
@@ -4050,9 +4044,9 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
       <c r="H42" s="39"/>
@@ -4079,9 +4073,9 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
       <c r="H43" s="39"/>
@@ -4108,9 +4102,9 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="132"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
       <c r="H44" s="39"/>
@@ -4137,9 +4131,9 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="132"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="12"/>
       <c r="G45" s="10"/>
       <c r="H45" s="39"/>
@@ -4166,9 +4160,9 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="12"/>
       <c r="G46" s="10"/>
       <c r="H46" s="39"/>
@@ -4195,9 +4189,9 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="132"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="12"/>
       <c r="G47" s="10"/>
       <c r="H47" s="39"/>
@@ -4224,9 +4218,9 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="132"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="109"/>
       <c r="F48" s="12"/>
       <c r="G48" s="10"/>
       <c r="H48" s="39"/>
@@ -4253,9 +4247,9 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="132"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="12"/>
       <c r="G49" s="10"/>
       <c r="H49" s="39"/>
@@ -4282,9 +4276,9 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="132"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="12"/>
       <c r="G50" s="10"/>
       <c r="H50" s="39"/>
@@ -4311,9 +4305,9 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="132"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="12"/>
       <c r="G51" s="10"/>
       <c r="H51" s="39"/>
@@ -4340,9 +4334,9 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="132"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="12"/>
       <c r="G52" s="10"/>
       <c r="H52" s="39"/>
@@ -4369,9 +4363,9 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="132"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="12"/>
       <c r="G53" s="10"/>
       <c r="H53" s="39"/>
@@ -4398,9 +4392,9 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="132"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="12"/>
       <c r="G54" s="10"/>
       <c r="H54" s="39"/>
@@ -4427,9 +4421,9 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="132"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="12"/>
       <c r="G55" s="10"/>
       <c r="H55" s="39"/>
@@ -4456,9 +4450,9 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="132"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="12"/>
       <c r="G56" s="10"/>
       <c r="H56" s="39"/>
@@ -4485,9 +4479,9 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="132"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="12"/>
       <c r="G57" s="10"/>
       <c r="H57" s="39"/>

--- a/forms/Form-3DA-multiple.xlsx
+++ b/forms/Form-3DA-multiple.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A257361-7A0A-40A9-8CA7-2FE92B53F736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CB9688-46AB-476A-BEDB-8720BB391288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1226,6 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1571,7 +1572,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1685,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="133" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="3"/>
@@ -1904,7 +1905,7 @@
       <c r="D32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4VdyBuMFK5ic78v0b7O7IkMXjspkZgKr8npds3Uci72XW2a9Ru363WoH+aZWtLYwG+ZP9v63kT5nDMcBNYGbfA==" saltValue="DqdQC2csG9APUywqOzllew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oVOKhPE9S1Q9Bzl5n8cXEEK2rCzfiRvampvxea5HTKMEHRmGRyP/BkzkabRczgcVxRf7nUUz1d/nYgmdfSqtUg==" saltValue="qKxtM3U0TWCttzKmQsbjGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C8:D8"/>

--- a/forms/Form-3DA-multiple.xlsx
+++ b/forms/Form-3DA-multiple.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CB9688-46AB-476A-BEDB-8720BB391288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A688054-413C-423B-9B1E-1725CD388203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5DvQh67CqwpXF5nvK7dpPxR3Pt0yB/nZxqejbtUHEzmemyWSbLakjzpL/AJnjHY2PfyZeKC6tZsl2wcqhenc9Q==" workbookSaltValue="SFs4XJpRzZAAYXRJrz5n4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1011,10 +1011,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1226,7 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1572,7 +1567,7 @@
   <dimension ref="B1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,24 +1582,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
@@ -1654,15 +1649,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="115"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="115"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1680,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="3"/>
@@ -1884,11 +1879,11 @@
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="114"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,9 +1937,9 @@
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="104" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="104" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="110" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="103" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="109" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="11" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
@@ -1963,18 +1958,18 @@
     <col min="23" max="23" width="7.140625" style="53" customWidth="1"/>
     <col min="24" max="26" width="7.85546875" style="62" customWidth="1"/>
     <col min="27" max="27" width="7.140625" style="53" customWidth="1"/>
-    <col min="28" max="28" width="10" style="73" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="92"/>
-    <col min="31" max="128" width="9.140625" style="93"/>
-    <col min="129" max="129" width="9.140625" style="94"/>
+    <col min="28" max="28" width="10" style="72" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="91"/>
+    <col min="31" max="128" width="9.140625" style="92"/>
+    <col min="129" max="129" width="9.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:129" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="105"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="50"/>
@@ -2101,686 +2096,686 @@
       <c r="DY1"/>
     </row>
     <row r="2" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="74"/>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="74"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
-      <c r="BR2" s="74"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="74"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="74"/>
-      <c r="BX2" s="74"/>
-      <c r="BY2" s="74"/>
-      <c r="BZ2" s="74"/>
-      <c r="CA2" s="74"/>
-      <c r="CB2" s="74"/>
-      <c r="CC2" s="74"/>
-      <c r="CD2" s="74"/>
-      <c r="CE2" s="74"/>
-      <c r="CF2" s="74"/>
-      <c r="CG2" s="74"/>
-      <c r="CH2" s="74"/>
-      <c r="CI2" s="74"/>
-      <c r="CJ2" s="74"/>
-      <c r="CK2" s="74"/>
-      <c r="CL2" s="74"/>
-      <c r="CM2" s="74"/>
-      <c r="CN2" s="74"/>
-      <c r="CO2" s="74"/>
-      <c r="CP2" s="74"/>
-      <c r="CQ2" s="74"/>
-      <c r="CR2" s="74"/>
-      <c r="CS2" s="74"/>
-      <c r="CT2" s="74"/>
-      <c r="CU2" s="74"/>
-      <c r="CV2" s="74"/>
-      <c r="CW2" s="74"/>
-      <c r="CX2" s="74"/>
-      <c r="CY2" s="74"/>
-      <c r="CZ2" s="74"/>
-      <c r="DA2" s="74"/>
-      <c r="DB2" s="74"/>
-      <c r="DC2" s="74"/>
-      <c r="DD2" s="74"/>
-      <c r="DE2" s="74"/>
-      <c r="DF2" s="74"/>
-      <c r="DG2" s="74"/>
-      <c r="DH2" s="74"/>
-      <c r="DI2" s="74"/>
-      <c r="DJ2" s="74"/>
-      <c r="DK2" s="74"/>
-      <c r="DL2" s="74"/>
-      <c r="DM2" s="74"/>
-      <c r="DN2" s="74"/>
-      <c r="DO2" s="74"/>
-      <c r="DP2" s="74"/>
-      <c r="DQ2" s="74"/>
-      <c r="DR2" s="74"/>
-      <c r="DS2" s="74"/>
-      <c r="DT2" s="74"/>
-      <c r="DU2" s="74"/>
-      <c r="DV2" s="74"/>
-      <c r="DW2" s="74"/>
-      <c r="DX2" s="74"/>
-      <c r="DY2" s="75"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="73"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="73"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="73"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="73"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="73"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="73"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="73"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="73"/>
+      <c r="CE2" s="73"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="73"/>
+      <c r="CL2" s="73"/>
+      <c r="CM2" s="73"/>
+      <c r="CN2" s="73"/>
+      <c r="CO2" s="73"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="73"/>
+      <c r="CR2" s="73"/>
+      <c r="CS2" s="73"/>
+      <c r="CT2" s="73"/>
+      <c r="CU2" s="73"/>
+      <c r="CV2" s="73"/>
+      <c r="CW2" s="73"/>
+      <c r="CX2" s="73"/>
+      <c r="CY2" s="73"/>
+      <c r="CZ2" s="73"/>
+      <c r="DA2" s="73"/>
+      <c r="DB2" s="73"/>
+      <c r="DC2" s="73"/>
+      <c r="DD2" s="73"/>
+      <c r="DE2" s="73"/>
+      <c r="DF2" s="73"/>
+      <c r="DG2" s="73"/>
+      <c r="DH2" s="73"/>
+      <c r="DI2" s="73"/>
+      <c r="DJ2" s="73"/>
+      <c r="DK2" s="73"/>
+      <c r="DL2" s="73"/>
+      <c r="DM2" s="73"/>
+      <c r="DN2" s="73"/>
+      <c r="DO2" s="73"/>
+      <c r="DP2" s="73"/>
+      <c r="DQ2" s="73"/>
+      <c r="DR2" s="73"/>
+      <c r="DS2" s="73"/>
+      <c r="DT2" s="73"/>
+      <c r="DU2" s="73"/>
+      <c r="DV2" s="73"/>
+      <c r="DW2" s="73"/>
+      <c r="DX2" s="73"/>
+      <c r="DY2" s="74"/>
     </row>
     <row r="3" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="122" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="123"/>
-      <c r="BA3" s="123"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="123"/>
-      <c r="BD3" s="123"/>
-      <c r="BE3" s="123"/>
-      <c r="BF3" s="123"/>
-      <c r="BG3" s="123"/>
-      <c r="BH3" s="123"/>
-      <c r="BI3" s="123"/>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="123"/>
-      <c r="BL3" s="123"/>
-      <c r="BM3" s="123"/>
-      <c r="BN3" s="123"/>
-      <c r="BO3" s="123"/>
-      <c r="BP3" s="123"/>
-      <c r="BQ3" s="123"/>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="123"/>
-      <c r="BT3" s="123"/>
-      <c r="BU3" s="123"/>
-      <c r="BV3" s="123"/>
-      <c r="BW3" s="123"/>
-      <c r="BX3" s="123"/>
-      <c r="BY3" s="123"/>
-      <c r="BZ3" s="123"/>
-      <c r="CA3" s="123"/>
-      <c r="CB3" s="123"/>
-      <c r="CC3" s="123"/>
-      <c r="CD3" s="123"/>
-      <c r="CE3" s="123"/>
-      <c r="CF3" s="123"/>
-      <c r="CG3" s="123"/>
-      <c r="CH3" s="123"/>
-      <c r="CI3" s="123"/>
-      <c r="CJ3" s="123"/>
-      <c r="CK3" s="123"/>
-      <c r="CL3" s="123"/>
-      <c r="CM3" s="123"/>
-      <c r="CN3" s="123"/>
-      <c r="CO3" s="123"/>
-      <c r="CP3" s="123"/>
-      <c r="CQ3" s="123"/>
-      <c r="CR3" s="123"/>
-      <c r="CS3" s="123"/>
-      <c r="CT3" s="123"/>
-      <c r="CU3" s="123"/>
-      <c r="CV3" s="123"/>
-      <c r="CW3" s="123"/>
-      <c r="CX3" s="123"/>
-      <c r="CY3" s="123"/>
-      <c r="CZ3" s="123"/>
-      <c r="DA3" s="123"/>
-      <c r="DB3" s="123"/>
-      <c r="DC3" s="123"/>
-      <c r="DD3" s="123"/>
-      <c r="DE3" s="123"/>
-      <c r="DF3" s="123"/>
-      <c r="DG3" s="123"/>
-      <c r="DH3" s="123"/>
-      <c r="DI3" s="123"/>
-      <c r="DJ3" s="123"/>
-      <c r="DK3" s="123"/>
-      <c r="DL3" s="123"/>
-      <c r="DM3" s="123"/>
-      <c r="DN3" s="123"/>
-      <c r="DO3" s="123"/>
-      <c r="DP3" s="123"/>
-      <c r="DQ3" s="123"/>
-      <c r="DR3" s="123"/>
-      <c r="DS3" s="123"/>
-      <c r="DT3" s="123"/>
-      <c r="DU3" s="123"/>
-      <c r="DV3" s="123"/>
-      <c r="DW3" s="123"/>
-      <c r="DX3" s="123"/>
-      <c r="DY3" s="124"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="122"/>
+      <c r="AV3" s="122"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="122"/>
+      <c r="BD3" s="122"/>
+      <c r="BE3" s="122"/>
+      <c r="BF3" s="122"/>
+      <c r="BG3" s="122"/>
+      <c r="BH3" s="122"/>
+      <c r="BI3" s="122"/>
+      <c r="BJ3" s="122"/>
+      <c r="BK3" s="122"/>
+      <c r="BL3" s="122"/>
+      <c r="BM3" s="122"/>
+      <c r="BN3" s="122"/>
+      <c r="BO3" s="122"/>
+      <c r="BP3" s="122"/>
+      <c r="BQ3" s="122"/>
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="122"/>
+      <c r="BT3" s="122"/>
+      <c r="BU3" s="122"/>
+      <c r="BV3" s="122"/>
+      <c r="BW3" s="122"/>
+      <c r="BX3" s="122"/>
+      <c r="BY3" s="122"/>
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="122"/>
+      <c r="CB3" s="122"/>
+      <c r="CC3" s="122"/>
+      <c r="CD3" s="122"/>
+      <c r="CE3" s="122"/>
+      <c r="CF3" s="122"/>
+      <c r="CG3" s="122"/>
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="122"/>
+      <c r="CJ3" s="122"/>
+      <c r="CK3" s="122"/>
+      <c r="CL3" s="122"/>
+      <c r="CM3" s="122"/>
+      <c r="CN3" s="122"/>
+      <c r="CO3" s="122"/>
+      <c r="CP3" s="122"/>
+      <c r="CQ3" s="122"/>
+      <c r="CR3" s="122"/>
+      <c r="CS3" s="122"/>
+      <c r="CT3" s="122"/>
+      <c r="CU3" s="122"/>
+      <c r="CV3" s="122"/>
+      <c r="CW3" s="122"/>
+      <c r="CX3" s="122"/>
+      <c r="CY3" s="122"/>
+      <c r="CZ3" s="122"/>
+      <c r="DA3" s="122"/>
+      <c r="DB3" s="122"/>
+      <c r="DC3" s="122"/>
+      <c r="DD3" s="122"/>
+      <c r="DE3" s="122"/>
+      <c r="DF3" s="122"/>
+      <c r="DG3" s="122"/>
+      <c r="DH3" s="122"/>
+      <c r="DI3" s="122"/>
+      <c r="DJ3" s="122"/>
+      <c r="DK3" s="122"/>
+      <c r="DL3" s="122"/>
+      <c r="DM3" s="122"/>
+      <c r="DN3" s="122"/>
+      <c r="DO3" s="122"/>
+      <c r="DP3" s="122"/>
+      <c r="DQ3" s="122"/>
+      <c r="DR3" s="122"/>
+      <c r="DS3" s="122"/>
+      <c r="DT3" s="122"/>
+      <c r="DU3" s="122"/>
+      <c r="DV3" s="122"/>
+      <c r="DW3" s="122"/>
+      <c r="DX3" s="122"/>
+      <c r="DY3" s="123"/>
     </row>
     <row r="4" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="95" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="81"/>
-      <c r="BC4" s="81"/>
-      <c r="BD4" s="81"/>
-      <c r="BE4" s="81"/>
-      <c r="BF4" s="81"/>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="81"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="81"/>
-      <c r="BK4" s="81"/>
-      <c r="BL4" s="81"/>
-      <c r="BM4" s="81"/>
-      <c r="BN4" s="81"/>
-      <c r="BO4" s="81"/>
-      <c r="BP4" s="81"/>
-      <c r="BQ4" s="81"/>
-      <c r="BR4" s="81"/>
-      <c r="BS4" s="81"/>
-      <c r="BT4" s="81"/>
-      <c r="BU4" s="81"/>
-      <c r="BV4" s="81"/>
-      <c r="BW4" s="81"/>
-      <c r="BX4" s="81"/>
-      <c r="BY4" s="81"/>
-      <c r="BZ4" s="81"/>
-      <c r="CA4" s="81"/>
-      <c r="CB4" s="81"/>
-      <c r="CC4" s="81"/>
-      <c r="CD4" s="81"/>
-      <c r="CE4" s="81"/>
-      <c r="CF4" s="81"/>
-      <c r="CG4" s="81"/>
-      <c r="CH4" s="81"/>
-      <c r="CI4" s="81"/>
-      <c r="CJ4" s="81"/>
-      <c r="CK4" s="81"/>
-      <c r="CL4" s="81"/>
-      <c r="CM4" s="81"/>
-      <c r="CN4" s="81"/>
-      <c r="CO4" s="81"/>
-      <c r="CP4" s="81"/>
-      <c r="CQ4" s="81"/>
-      <c r="CR4" s="81"/>
-      <c r="CS4" s="81"/>
-      <c r="CT4" s="81"/>
-      <c r="CU4" s="81"/>
-      <c r="CV4" s="81"/>
-      <c r="CW4" s="81"/>
-      <c r="CX4" s="81"/>
-      <c r="CY4" s="81"/>
-      <c r="CZ4" s="81"/>
-      <c r="DA4" s="81"/>
-      <c r="DB4" s="81"/>
-      <c r="DC4" s="81"/>
-      <c r="DD4" s="81"/>
-      <c r="DE4" s="81"/>
-      <c r="DF4" s="81"/>
-      <c r="DG4" s="81"/>
-      <c r="DH4" s="81"/>
-      <c r="DI4" s="81"/>
-      <c r="DJ4" s="81"/>
-      <c r="DK4" s="81"/>
-      <c r="DL4" s="81"/>
-      <c r="DM4" s="81"/>
-      <c r="DN4" s="81"/>
-      <c r="DO4" s="81"/>
-      <c r="DP4" s="81"/>
-      <c r="DQ4" s="81"/>
-      <c r="DR4" s="81"/>
-      <c r="DS4" s="81"/>
-      <c r="DT4" s="81"/>
-      <c r="DU4" s="81"/>
-      <c r="DV4" s="81"/>
-      <c r="DW4" s="81"/>
-      <c r="DX4" s="81"/>
-      <c r="DY4" s="82"/>
+      <c r="AD4" s="79"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="80"/>
+      <c r="AJ4" s="80"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="80"/>
+      <c r="AP4" s="80"/>
+      <c r="AQ4" s="80"/>
+      <c r="AR4" s="80"/>
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="80"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="80"/>
+      <c r="BD4" s="80"/>
+      <c r="BE4" s="80"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="80"/>
+      <c r="BJ4" s="80"/>
+      <c r="BK4" s="80"/>
+      <c r="BL4" s="80"/>
+      <c r="BM4" s="80"/>
+      <c r="BN4" s="80"/>
+      <c r="BO4" s="80"/>
+      <c r="BP4" s="80"/>
+      <c r="BQ4" s="80"/>
+      <c r="BR4" s="80"/>
+      <c r="BS4" s="80"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="80"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="80"/>
+      <c r="CB4" s="80"/>
+      <c r="CC4" s="80"/>
+      <c r="CD4" s="80"/>
+      <c r="CE4" s="80"/>
+      <c r="CF4" s="80"/>
+      <c r="CG4" s="80"/>
+      <c r="CH4" s="80"/>
+      <c r="CI4" s="80"/>
+      <c r="CJ4" s="80"/>
+      <c r="CK4" s="80"/>
+      <c r="CL4" s="80"/>
+      <c r="CM4" s="80"/>
+      <c r="CN4" s="80"/>
+      <c r="CO4" s="80"/>
+      <c r="CP4" s="80"/>
+      <c r="CQ4" s="80"/>
+      <c r="CR4" s="80"/>
+      <c r="CS4" s="80"/>
+      <c r="CT4" s="80"/>
+      <c r="CU4" s="80"/>
+      <c r="CV4" s="80"/>
+      <c r="CW4" s="80"/>
+      <c r="CX4" s="80"/>
+      <c r="CY4" s="80"/>
+      <c r="CZ4" s="80"/>
+      <c r="DA4" s="80"/>
+      <c r="DB4" s="80"/>
+      <c r="DC4" s="80"/>
+      <c r="DD4" s="80"/>
+      <c r="DE4" s="80"/>
+      <c r="DF4" s="80"/>
+      <c r="DG4" s="80"/>
+      <c r="DH4" s="80"/>
+      <c r="DI4" s="80"/>
+      <c r="DJ4" s="80"/>
+      <c r="DK4" s="80"/>
+      <c r="DL4" s="80"/>
+      <c r="DM4" s="80"/>
+      <c r="DN4" s="80"/>
+      <c r="DO4" s="80"/>
+      <c r="DP4" s="80"/>
+      <c r="DQ4" s="80"/>
+      <c r="DR4" s="80"/>
+      <c r="DS4" s="80"/>
+      <c r="DT4" s="80"/>
+      <c r="DU4" s="80"/>
+      <c r="DV4" s="80"/>
+      <c r="DW4" s="80"/>
+      <c r="DX4" s="80"/>
+      <c r="DY4" s="81"/>
     </row>
     <row r="5" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="68"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="96" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="84"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="84"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="84"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
-      <c r="BR5" s="84"/>
-      <c r="BS5" s="84"/>
-      <c r="BT5" s="84"/>
-      <c r="BU5" s="84"/>
-      <c r="BV5" s="84"/>
-      <c r="BW5" s="84"/>
-      <c r="BX5" s="84"/>
-      <c r="BY5" s="84"/>
-      <c r="BZ5" s="84"/>
-      <c r="CA5" s="84"/>
-      <c r="CB5" s="84"/>
-      <c r="CC5" s="84"/>
-      <c r="CD5" s="84"/>
-      <c r="CE5" s="84"/>
-      <c r="CF5" s="84"/>
-      <c r="CG5" s="84"/>
-      <c r="CH5" s="84"/>
-      <c r="CI5" s="84"/>
-      <c r="CJ5" s="84"/>
-      <c r="CK5" s="84"/>
-      <c r="CL5" s="84"/>
-      <c r="CM5" s="84"/>
-      <c r="CN5" s="84"/>
-      <c r="CO5" s="84"/>
-      <c r="CP5" s="84"/>
-      <c r="CQ5" s="84"/>
-      <c r="CR5" s="84"/>
-      <c r="CS5" s="84"/>
-      <c r="CT5" s="84"/>
-      <c r="CU5" s="84"/>
-      <c r="CV5" s="84"/>
-      <c r="CW5" s="84"/>
-      <c r="CX5" s="84"/>
-      <c r="CY5" s="84"/>
-      <c r="CZ5" s="84"/>
-      <c r="DA5" s="84"/>
-      <c r="DB5" s="84"/>
-      <c r="DC5" s="84"/>
-      <c r="DD5" s="84"/>
-      <c r="DE5" s="84"/>
-      <c r="DF5" s="84"/>
-      <c r="DG5" s="84"/>
-      <c r="DH5" s="84"/>
-      <c r="DI5" s="84"/>
-      <c r="DJ5" s="84"/>
-      <c r="DK5" s="84"/>
-      <c r="DL5" s="84"/>
-      <c r="DM5" s="84"/>
-      <c r="DN5" s="84"/>
-      <c r="DO5" s="84"/>
-      <c r="DP5" s="84"/>
-      <c r="DQ5" s="84"/>
-      <c r="DR5" s="84"/>
-      <c r="DS5" s="84"/>
-      <c r="DT5" s="84"/>
-      <c r="DU5" s="84"/>
-      <c r="DV5" s="84"/>
-      <c r="DW5" s="84"/>
-      <c r="DX5" s="84"/>
-      <c r="DY5" s="85"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="83"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="83"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="83"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="83"/>
+      <c r="AX5" s="83"/>
+      <c r="AY5" s="83"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="83"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BF5" s="83"/>
+      <c r="BG5" s="83"/>
+      <c r="BH5" s="83"/>
+      <c r="BI5" s="83"/>
+      <c r="BJ5" s="83"/>
+      <c r="BK5" s="83"/>
+      <c r="BL5" s="83"/>
+      <c r="BM5" s="83"/>
+      <c r="BN5" s="83"/>
+      <c r="BO5" s="83"/>
+      <c r="BP5" s="83"/>
+      <c r="BQ5" s="83"/>
+      <c r="BR5" s="83"/>
+      <c r="BS5" s="83"/>
+      <c r="BT5" s="83"/>
+      <c r="BU5" s="83"/>
+      <c r="BV5" s="83"/>
+      <c r="BW5" s="83"/>
+      <c r="BX5" s="83"/>
+      <c r="BY5" s="83"/>
+      <c r="BZ5" s="83"/>
+      <c r="CA5" s="83"/>
+      <c r="CB5" s="83"/>
+      <c r="CC5" s="83"/>
+      <c r="CD5" s="83"/>
+      <c r="CE5" s="83"/>
+      <c r="CF5" s="83"/>
+      <c r="CG5" s="83"/>
+      <c r="CH5" s="83"/>
+      <c r="CI5" s="83"/>
+      <c r="CJ5" s="83"/>
+      <c r="CK5" s="83"/>
+      <c r="CL5" s="83"/>
+      <c r="CM5" s="83"/>
+      <c r="CN5" s="83"/>
+      <c r="CO5" s="83"/>
+      <c r="CP5" s="83"/>
+      <c r="CQ5" s="83"/>
+      <c r="CR5" s="83"/>
+      <c r="CS5" s="83"/>
+      <c r="CT5" s="83"/>
+      <c r="CU5" s="83"/>
+      <c r="CV5" s="83"/>
+      <c r="CW5" s="83"/>
+      <c r="CX5" s="83"/>
+      <c r="CY5" s="83"/>
+      <c r="CZ5" s="83"/>
+      <c r="DA5" s="83"/>
+      <c r="DB5" s="83"/>
+      <c r="DC5" s="83"/>
+      <c r="DD5" s="83"/>
+      <c r="DE5" s="83"/>
+      <c r="DF5" s="83"/>
+      <c r="DG5" s="83"/>
+      <c r="DH5" s="83"/>
+      <c r="DI5" s="83"/>
+      <c r="DJ5" s="83"/>
+      <c r="DK5" s="83"/>
+      <c r="DL5" s="83"/>
+      <c r="DM5" s="83"/>
+      <c r="DN5" s="83"/>
+      <c r="DO5" s="83"/>
+      <c r="DP5" s="83"/>
+      <c r="DQ5" s="83"/>
+      <c r="DR5" s="83"/>
+      <c r="DS5" s="83"/>
+      <c r="DT5" s="83"/>
+      <c r="DU5" s="83"/>
+      <c r="DV5" s="83"/>
+      <c r="DW5" s="83"/>
+      <c r="DX5" s="83"/>
+      <c r="DY5" s="84"/>
     </row>
     <row r="6" spans="2:129" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130" t="s">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="127" t="s">
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="128"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="130" t="s">
+      <c r="M6" s="127"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="130" t="s">
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="97" t="s">
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="84"/>
-      <c r="BF6" s="84"/>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="84"/>
-      <c r="BI6" s="84"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="84"/>
-      <c r="BN6" s="84"/>
-      <c r="BO6" s="84"/>
-      <c r="BP6" s="84"/>
-      <c r="BQ6" s="84"/>
-      <c r="BR6" s="84"/>
-      <c r="BS6" s="84"/>
-      <c r="BT6" s="84"/>
-      <c r="BU6" s="84"/>
-      <c r="BV6" s="84"/>
-      <c r="BW6" s="84"/>
-      <c r="BX6" s="84"/>
-      <c r="BY6" s="84"/>
-      <c r="BZ6" s="84"/>
-      <c r="CA6" s="84"/>
-      <c r="CB6" s="84"/>
-      <c r="CC6" s="84"/>
-      <c r="CD6" s="84"/>
-      <c r="CE6" s="84"/>
-      <c r="CF6" s="84"/>
-      <c r="CG6" s="84"/>
-      <c r="CH6" s="84"/>
-      <c r="CI6" s="84"/>
-      <c r="CJ6" s="84"/>
-      <c r="CK6" s="84"/>
-      <c r="CL6" s="84"/>
-      <c r="CM6" s="84"/>
-      <c r="CN6" s="84"/>
-      <c r="CO6" s="84"/>
-      <c r="CP6" s="84"/>
-      <c r="CQ6" s="84"/>
-      <c r="CR6" s="84"/>
-      <c r="CS6" s="84"/>
-      <c r="CT6" s="84"/>
-      <c r="CU6" s="84"/>
-      <c r="CV6" s="84"/>
-      <c r="CW6" s="84"/>
-      <c r="CX6" s="84"/>
-      <c r="CY6" s="84"/>
-      <c r="CZ6" s="84"/>
-      <c r="DA6" s="84"/>
-      <c r="DB6" s="84"/>
-      <c r="DC6" s="84"/>
-      <c r="DD6" s="84"/>
-      <c r="DE6" s="84"/>
-      <c r="DF6" s="84"/>
-      <c r="DG6" s="84"/>
-      <c r="DH6" s="84"/>
-      <c r="DI6" s="84"/>
-      <c r="DJ6" s="84"/>
-      <c r="DK6" s="84"/>
-      <c r="DL6" s="84"/>
-      <c r="DM6" s="84"/>
-      <c r="DN6" s="84"/>
-      <c r="DO6" s="84"/>
-      <c r="DP6" s="84"/>
-      <c r="DQ6" s="84"/>
-      <c r="DR6" s="84"/>
-      <c r="DS6" s="84"/>
-      <c r="DT6" s="84"/>
-      <c r="DU6" s="84"/>
-      <c r="DV6" s="84"/>
-      <c r="DW6" s="84"/>
-      <c r="DX6" s="84"/>
-      <c r="DY6" s="85"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="83"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="83"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="83"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="83"/>
+      <c r="BC6" s="83"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
+      <c r="BF6" s="83"/>
+      <c r="BG6" s="83"/>
+      <c r="BH6" s="83"/>
+      <c r="BI6" s="83"/>
+      <c r="BJ6" s="83"/>
+      <c r="BK6" s="83"/>
+      <c r="BL6" s="83"/>
+      <c r="BM6" s="83"/>
+      <c r="BN6" s="83"/>
+      <c r="BO6" s="83"/>
+      <c r="BP6" s="83"/>
+      <c r="BQ6" s="83"/>
+      <c r="BR6" s="83"/>
+      <c r="BS6" s="83"/>
+      <c r="BT6" s="83"/>
+      <c r="BU6" s="83"/>
+      <c r="BV6" s="83"/>
+      <c r="BW6" s="83"/>
+      <c r="BX6" s="83"/>
+      <c r="BY6" s="83"/>
+      <c r="BZ6" s="83"/>
+      <c r="CA6" s="83"/>
+      <c r="CB6" s="83"/>
+      <c r="CC6" s="83"/>
+      <c r="CD6" s="83"/>
+      <c r="CE6" s="83"/>
+      <c r="CF6" s="83"/>
+      <c r="CG6" s="83"/>
+      <c r="CH6" s="83"/>
+      <c r="CI6" s="83"/>
+      <c r="CJ6" s="83"/>
+      <c r="CK6" s="83"/>
+      <c r="CL6" s="83"/>
+      <c r="CM6" s="83"/>
+      <c r="CN6" s="83"/>
+      <c r="CO6" s="83"/>
+      <c r="CP6" s="83"/>
+      <c r="CQ6" s="83"/>
+      <c r="CR6" s="83"/>
+      <c r="CS6" s="83"/>
+      <c r="CT6" s="83"/>
+      <c r="CU6" s="83"/>
+      <c r="CV6" s="83"/>
+      <c r="CW6" s="83"/>
+      <c r="CX6" s="83"/>
+      <c r="CY6" s="83"/>
+      <c r="CZ6" s="83"/>
+      <c r="DA6" s="83"/>
+      <c r="DB6" s="83"/>
+      <c r="DC6" s="83"/>
+      <c r="DD6" s="83"/>
+      <c r="DE6" s="83"/>
+      <c r="DF6" s="83"/>
+      <c r="DG6" s="83"/>
+      <c r="DH6" s="83"/>
+      <c r="DI6" s="83"/>
+      <c r="DJ6" s="83"/>
+      <c r="DK6" s="83"/>
+      <c r="DL6" s="83"/>
+      <c r="DM6" s="83"/>
+      <c r="DN6" s="83"/>
+      <c r="DO6" s="83"/>
+      <c r="DP6" s="83"/>
+      <c r="DQ6" s="83"/>
+      <c r="DR6" s="83"/>
+      <c r="DS6" s="83"/>
+      <c r="DT6" s="83"/>
+      <c r="DU6" s="83"/>
+      <c r="DV6" s="83"/>
+      <c r="DW6" s="83"/>
+      <c r="DX6" s="83"/>
+      <c r="DY6" s="84"/>
     </row>
     <row r="7" spans="2:129" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="106" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="47" t="s">
@@ -2789,25 +2784,25 @@
       <c r="G7" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="99" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="66" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="66" t="s">
         <v>27</v>
       </c>
       <c r="O7" s="63" t="s">
@@ -2828,7 +2823,7 @@
       <c r="T7" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="69" t="s">
+      <c r="U7" s="68" t="s">
         <v>31</v>
       </c>
       <c r="V7" s="65" t="s">
@@ -2849,118 +2844,118 @@
       <c r="AA7" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="70" t="s">
+      <c r="AB7" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="AC7" s="98" t="s">
+      <c r="AC7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87"/>
-      <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
-      <c r="BB7" s="87"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="87"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
-      <c r="BH7" s="87"/>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="87"/>
-      <c r="BK7" s="87"/>
-      <c r="BL7" s="87"/>
-      <c r="BM7" s="87"/>
-      <c r="BN7" s="87"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
-      <c r="BR7" s="87"/>
-      <c r="BS7" s="87"/>
-      <c r="BT7" s="87"/>
-      <c r="BU7" s="87"/>
-      <c r="BV7" s="87"/>
-      <c r="BW7" s="87"/>
-      <c r="BX7" s="87"/>
-      <c r="BY7" s="87"/>
-      <c r="BZ7" s="87"/>
-      <c r="CA7" s="87"/>
-      <c r="CB7" s="87"/>
-      <c r="CC7" s="87"/>
-      <c r="CD7" s="87"/>
-      <c r="CE7" s="87"/>
-      <c r="CF7" s="87"/>
-      <c r="CG7" s="87"/>
-      <c r="CH7" s="87"/>
-      <c r="CI7" s="87"/>
-      <c r="CJ7" s="87"/>
-      <c r="CK7" s="87"/>
-      <c r="CL7" s="87"/>
-      <c r="CM7" s="87"/>
-      <c r="CN7" s="87"/>
-      <c r="CO7" s="87"/>
-      <c r="CP7" s="87"/>
-      <c r="CQ7" s="87"/>
-      <c r="CR7" s="87"/>
-      <c r="CS7" s="87"/>
-      <c r="CT7" s="87"/>
-      <c r="CU7" s="87"/>
-      <c r="CV7" s="87"/>
-      <c r="CW7" s="87"/>
-      <c r="CX7" s="87"/>
-      <c r="CY7" s="87"/>
-      <c r="CZ7" s="87"/>
-      <c r="DA7" s="87"/>
-      <c r="DB7" s="87"/>
-      <c r="DC7" s="87"/>
-      <c r="DD7" s="87"/>
-      <c r="DE7" s="87"/>
-      <c r="DF7" s="87"/>
-      <c r="DG7" s="87"/>
-      <c r="DH7" s="87"/>
-      <c r="DI7" s="87"/>
-      <c r="DJ7" s="87"/>
-      <c r="DK7" s="87"/>
-      <c r="DL7" s="87"/>
-      <c r="DM7" s="87"/>
-      <c r="DN7" s="87"/>
-      <c r="DO7" s="87"/>
-      <c r="DP7" s="87"/>
-      <c r="DQ7" s="87"/>
-      <c r="DR7" s="87"/>
-      <c r="DS7" s="87"/>
-      <c r="DT7" s="87"/>
-      <c r="DU7" s="87"/>
-      <c r="DV7" s="87"/>
-      <c r="DW7" s="87"/>
-      <c r="DX7" s="87"/>
-      <c r="DY7" s="88"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BL7" s="86"/>
+      <c r="BM7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="86"/>
+      <c r="BS7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="86"/>
+      <c r="CC7" s="86"/>
+      <c r="CD7" s="86"/>
+      <c r="CE7" s="86"/>
+      <c r="CF7" s="86"/>
+      <c r="CG7" s="86"/>
+      <c r="CH7" s="86"/>
+      <c r="CI7" s="86"/>
+      <c r="CJ7" s="86"/>
+      <c r="CK7" s="86"/>
+      <c r="CL7" s="86"/>
+      <c r="CM7" s="86"/>
+      <c r="CN7" s="86"/>
+      <c r="CO7" s="86"/>
+      <c r="CP7" s="86"/>
+      <c r="CQ7" s="86"/>
+      <c r="CR7" s="86"/>
+      <c r="CS7" s="86"/>
+      <c r="CT7" s="86"/>
+      <c r="CU7" s="86"/>
+      <c r="CV7" s="86"/>
+      <c r="CW7" s="86"/>
+      <c r="CX7" s="86"/>
+      <c r="CY7" s="86"/>
+      <c r="CZ7" s="86"/>
+      <c r="DA7" s="86"/>
+      <c r="DB7" s="86"/>
+      <c r="DC7" s="86"/>
+      <c r="DD7" s="86"/>
+      <c r="DE7" s="86"/>
+      <c r="DF7" s="86"/>
+      <c r="DG7" s="86"/>
+      <c r="DH7" s="86"/>
+      <c r="DI7" s="86"/>
+      <c r="DJ7" s="86"/>
+      <c r="DK7" s="86"/>
+      <c r="DL7" s="86"/>
+      <c r="DM7" s="86"/>
+      <c r="DN7" s="86"/>
+      <c r="DO7" s="86"/>
+      <c r="DP7" s="86"/>
+      <c r="DQ7" s="86"/>
+      <c r="DR7" s="86"/>
+      <c r="DS7" s="86"/>
+      <c r="DT7" s="86"/>
+      <c r="DU7" s="86"/>
+      <c r="DV7" s="86"/>
+      <c r="DW7" s="86"/>
+      <c r="DX7" s="86"/>
+      <c r="DY7" s="87"/>
     </row>
     <row r="8" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="108"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="107"/>
       <c r="F8" s="14"/>
       <c r="G8" s="16"/>
       <c r="H8" s="38"/>
@@ -2983,114 +2978,114 @@
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
       <c r="AA8" s="40"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="90"/>
-      <c r="AO8" s="90"/>
-      <c r="AP8" s="90"/>
-      <c r="AQ8" s="90"/>
-      <c r="AR8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AT8" s="90"/>
-      <c r="AU8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AW8" s="90"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BF8" s="90"/>
-      <c r="BG8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BI8" s="90"/>
-      <c r="BJ8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BL8" s="90"/>
-      <c r="BM8" s="90"/>
-      <c r="BN8" s="90"/>
-      <c r="BO8" s="90"/>
-      <c r="BP8" s="90"/>
-      <c r="BQ8" s="90"/>
-      <c r="BR8" s="90"/>
-      <c r="BS8" s="90"/>
-      <c r="BT8" s="90"/>
-      <c r="BU8" s="90"/>
-      <c r="BV8" s="90"/>
-      <c r="BW8" s="90"/>
-      <c r="BX8" s="90"/>
-      <c r="BY8" s="90"/>
-      <c r="BZ8" s="90"/>
-      <c r="CA8" s="90"/>
-      <c r="CB8" s="90"/>
-      <c r="CC8" s="90"/>
-      <c r="CD8" s="90"/>
-      <c r="CE8" s="90"/>
-      <c r="CF8" s="90"/>
-      <c r="CG8" s="90"/>
-      <c r="CH8" s="90"/>
-      <c r="CI8" s="90"/>
-      <c r="CJ8" s="90"/>
-      <c r="CK8" s="90"/>
-      <c r="CL8" s="90"/>
-      <c r="CM8" s="90"/>
-      <c r="CN8" s="90"/>
-      <c r="CO8" s="90"/>
-      <c r="CP8" s="90"/>
-      <c r="CQ8" s="90"/>
-      <c r="CR8" s="90"/>
-      <c r="CS8" s="90"/>
-      <c r="CT8" s="90"/>
-      <c r="CU8" s="90"/>
-      <c r="CV8" s="90"/>
-      <c r="CW8" s="90"/>
-      <c r="CX8" s="90"/>
-      <c r="CY8" s="90"/>
-      <c r="CZ8" s="90"/>
-      <c r="DA8" s="90"/>
-      <c r="DB8" s="90"/>
-      <c r="DC8" s="90"/>
-      <c r="DD8" s="90"/>
-      <c r="DE8" s="90"/>
-      <c r="DF8" s="90"/>
-      <c r="DG8" s="90"/>
-      <c r="DH8" s="90"/>
-      <c r="DI8" s="90"/>
-      <c r="DJ8" s="90"/>
-      <c r="DK8" s="90"/>
-      <c r="DL8" s="90"/>
-      <c r="DM8" s="90"/>
-      <c r="DN8" s="90"/>
-      <c r="DO8" s="90"/>
-      <c r="DP8" s="90"/>
-      <c r="DQ8" s="90"/>
-      <c r="DR8" s="90"/>
-      <c r="DS8" s="90"/>
-      <c r="DT8" s="90"/>
-      <c r="DU8" s="90"/>
-      <c r="DV8" s="90"/>
-      <c r="DW8" s="90"/>
-      <c r="DX8" s="90"/>
-      <c r="DY8" s="91"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="89"/>
+      <c r="BC8" s="89"/>
+      <c r="BD8" s="89"/>
+      <c r="BE8" s="89"/>
+      <c r="BF8" s="89"/>
+      <c r="BG8" s="89"/>
+      <c r="BH8" s="89"/>
+      <c r="BI8" s="89"/>
+      <c r="BJ8" s="89"/>
+      <c r="BK8" s="89"/>
+      <c r="BL8" s="89"/>
+      <c r="BM8" s="89"/>
+      <c r="BN8" s="89"/>
+      <c r="BO8" s="89"/>
+      <c r="BP8" s="89"/>
+      <c r="BQ8" s="89"/>
+      <c r="BR8" s="89"/>
+      <c r="BS8" s="89"/>
+      <c r="BT8" s="89"/>
+      <c r="BU8" s="89"/>
+      <c r="BV8" s="89"/>
+      <c r="BW8" s="89"/>
+      <c r="BX8" s="89"/>
+      <c r="BY8" s="89"/>
+      <c r="BZ8" s="89"/>
+      <c r="CA8" s="89"/>
+      <c r="CB8" s="89"/>
+      <c r="CC8" s="89"/>
+      <c r="CD8" s="89"/>
+      <c r="CE8" s="89"/>
+      <c r="CF8" s="89"/>
+      <c r="CG8" s="89"/>
+      <c r="CH8" s="89"/>
+      <c r="CI8" s="89"/>
+      <c r="CJ8" s="89"/>
+      <c r="CK8" s="89"/>
+      <c r="CL8" s="89"/>
+      <c r="CM8" s="89"/>
+      <c r="CN8" s="89"/>
+      <c r="CO8" s="89"/>
+      <c r="CP8" s="89"/>
+      <c r="CQ8" s="89"/>
+      <c r="CR8" s="89"/>
+      <c r="CS8" s="89"/>
+      <c r="CT8" s="89"/>
+      <c r="CU8" s="89"/>
+      <c r="CV8" s="89"/>
+      <c r="CW8" s="89"/>
+      <c r="CX8" s="89"/>
+      <c r="CY8" s="89"/>
+      <c r="CZ8" s="89"/>
+      <c r="DA8" s="89"/>
+      <c r="DB8" s="89"/>
+      <c r="DC8" s="89"/>
+      <c r="DD8" s="89"/>
+      <c r="DE8" s="89"/>
+      <c r="DF8" s="89"/>
+      <c r="DG8" s="89"/>
+      <c r="DH8" s="89"/>
+      <c r="DI8" s="89"/>
+      <c r="DJ8" s="89"/>
+      <c r="DK8" s="89"/>
+      <c r="DL8" s="89"/>
+      <c r="DM8" s="89"/>
+      <c r="DN8" s="89"/>
+      <c r="DO8" s="89"/>
+      <c r="DP8" s="89"/>
+      <c r="DQ8" s="89"/>
+      <c r="DR8" s="89"/>
+      <c r="DS8" s="89"/>
+      <c r="DT8" s="89"/>
+      <c r="DU8" s="89"/>
+      <c r="DV8" s="89"/>
+      <c r="DW8" s="89"/>
+      <c r="DX8" s="89"/>
+      <c r="DY8" s="90"/>
     </row>
     <row r="9" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="109"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="12"/>
       <c r="G9" s="10"/>
       <c r="H9" s="39"/>
@@ -3113,13 +3108,13 @@
       <c r="Y9" s="61"/>
       <c r="Z9" s="61"/>
       <c r="AA9" s="41"/>
-      <c r="AB9" s="72"/>
+      <c r="AB9" s="71"/>
     </row>
     <row r="10" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="12"/>
       <c r="G10" s="10"/>
       <c r="H10" s="39"/>
@@ -3142,13 +3137,13 @@
       <c r="Y10" s="61"/>
       <c r="Z10" s="61"/>
       <c r="AA10" s="41"/>
-      <c r="AB10" s="72"/>
+      <c r="AB10" s="71"/>
     </row>
     <row r="11" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="109"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="12"/>
       <c r="G11" s="10"/>
       <c r="H11" s="39"/>
@@ -3171,13 +3166,13 @@
       <c r="Y11" s="61"/>
       <c r="Z11" s="61"/>
       <c r="AA11" s="41"/>
-      <c r="AB11" s="72"/>
+      <c r="AB11" s="71"/>
     </row>
     <row r="12" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="109"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="12"/>
       <c r="G12" s="10"/>
       <c r="H12" s="39"/>
@@ -3200,13 +3195,13 @@
       <c r="Y12" s="61"/>
       <c r="Z12" s="61"/>
       <c r="AA12" s="41"/>
-      <c r="AB12" s="72"/>
+      <c r="AB12" s="71"/>
     </row>
     <row r="13" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="109"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="12"/>
       <c r="G13" s="10"/>
       <c r="H13" s="39"/>
@@ -3229,13 +3224,13 @@
       <c r="Y13" s="61"/>
       <c r="Z13" s="61"/>
       <c r="AA13" s="41"/>
-      <c r="AB13" s="72"/>
+      <c r="AB13" s="71"/>
     </row>
     <row r="14" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="109"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
       <c r="H14" s="39"/>
@@ -3258,13 +3253,13 @@
       <c r="Y14" s="61"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="41"/>
-      <c r="AB14" s="72"/>
+      <c r="AB14" s="71"/>
     </row>
     <row r="15" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="109"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="12"/>
       <c r="G15" s="10"/>
       <c r="H15" s="39"/>
@@ -3287,13 +3282,13 @@
       <c r="Y15" s="61"/>
       <c r="Z15" s="61"/>
       <c r="AA15" s="41"/>
-      <c r="AB15" s="72"/>
+      <c r="AB15" s="71"/>
     </row>
     <row r="16" spans="2:129" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="12"/>
       <c r="G16" s="10"/>
       <c r="H16" s="39"/>
@@ -3316,13 +3311,13 @@
       <c r="Y16" s="61"/>
       <c r="Z16" s="61"/>
       <c r="AA16" s="41"/>
-      <c r="AB16" s="72"/>
+      <c r="AB16" s="71"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="12"/>
       <c r="G17" s="10"/>
       <c r="H17" s="39"/>
@@ -3345,13 +3340,13 @@
       <c r="Y17" s="61"/>
       <c r="Z17" s="61"/>
       <c r="AA17" s="41"/>
-      <c r="AB17" s="72"/>
+      <c r="AB17" s="71"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="12"/>
       <c r="G18" s="10"/>
       <c r="H18" s="39"/>
@@ -3374,13 +3369,13 @@
       <c r="Y18" s="61"/>
       <c r="Z18" s="61"/>
       <c r="AA18" s="41"/>
-      <c r="AB18" s="72"/>
+      <c r="AB18" s="71"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="109"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="12"/>
       <c r="G19" s="10"/>
       <c r="H19" s="39"/>
@@ -3403,13 +3398,13 @@
       <c r="Y19" s="61"/>
       <c r="Z19" s="61"/>
       <c r="AA19" s="41"/>
-      <c r="AB19" s="72"/>
+      <c r="AB19" s="71"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="109"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="12"/>
       <c r="G20" s="10"/>
       <c r="H20" s="39"/>
@@ -3432,13 +3427,13 @@
       <c r="Y20" s="61"/>
       <c r="Z20" s="61"/>
       <c r="AA20" s="41"/>
-      <c r="AB20" s="72"/>
+      <c r="AB20" s="71"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="109"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="12"/>
       <c r="G21" s="10"/>
       <c r="H21" s="39"/>
@@ -3461,13 +3456,13 @@
       <c r="Y21" s="61"/>
       <c r="Z21" s="61"/>
       <c r="AA21" s="41"/>
-      <c r="AB21" s="72"/>
+      <c r="AB21" s="71"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="109"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="108"/>
       <c r="F22" s="12"/>
       <c r="G22" s="10"/>
       <c r="H22" s="39"/>
@@ -3490,13 +3485,13 @@
       <c r="Y22" s="61"/>
       <c r="Z22" s="61"/>
       <c r="AA22" s="41"/>
-      <c r="AB22" s="72"/>
+      <c r="AB22" s="71"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="109"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="12"/>
       <c r="G23" s="10"/>
       <c r="H23" s="39"/>
@@ -3519,13 +3514,13 @@
       <c r="Y23" s="61"/>
       <c r="Z23" s="61"/>
       <c r="AA23" s="41"/>
-      <c r="AB23" s="72"/>
+      <c r="AB23" s="71"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="109"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="12"/>
       <c r="G24" s="10"/>
       <c r="H24" s="39"/>
@@ -3548,13 +3543,13 @@
       <c r="Y24" s="61"/>
       <c r="Z24" s="61"/>
       <c r="AA24" s="41"/>
-      <c r="AB24" s="72"/>
+      <c r="AB24" s="71"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="109"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
       <c r="H25" s="39"/>
@@ -3577,13 +3572,13 @@
       <c r="Y25" s="61"/>
       <c r="Z25" s="61"/>
       <c r="AA25" s="41"/>
-      <c r="AB25" s="72"/>
+      <c r="AB25" s="71"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="109"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="12"/>
       <c r="G26" s="10"/>
       <c r="H26" s="39"/>
@@ -3606,13 +3601,13 @@
       <c r="Y26" s="61"/>
       <c r="Z26" s="61"/>
       <c r="AA26" s="41"/>
-      <c r="AB26" s="72"/>
+      <c r="AB26" s="71"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="109"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="12"/>
       <c r="G27" s="10"/>
       <c r="H27" s="39"/>
@@ -3635,13 +3630,13 @@
       <c r="Y27" s="61"/>
       <c r="Z27" s="61"/>
       <c r="AA27" s="41"/>
-      <c r="AB27" s="72"/>
+      <c r="AB27" s="71"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="109"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
       <c r="H28" s="39"/>
@@ -3664,13 +3659,13 @@
       <c r="Y28" s="61"/>
       <c r="Z28" s="61"/>
       <c r="AA28" s="41"/>
-      <c r="AB28" s="72"/>
+      <c r="AB28" s="71"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="109"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="12"/>
       <c r="G29" s="10"/>
       <c r="H29" s="39"/>
@@ -3693,13 +3688,13 @@
       <c r="Y29" s="61"/>
       <c r="Z29" s="61"/>
       <c r="AA29" s="41"/>
-      <c r="AB29" s="72"/>
+      <c r="AB29" s="71"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="109"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="108"/>
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
       <c r="H30" s="39"/>
@@ -3722,13 +3717,13 @@
       <c r="Y30" s="61"/>
       <c r="Z30" s="61"/>
       <c r="AA30" s="41"/>
-      <c r="AB30" s="72"/>
+      <c r="AB30" s="71"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="109"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="12"/>
       <c r="G31" s="10"/>
       <c r="H31" s="39"/>
@@ -3751,13 +3746,13 @@
       <c r="Y31" s="61"/>
       <c r="Z31" s="61"/>
       <c r="AA31" s="41"/>
-      <c r="AB31" s="72"/>
+      <c r="AB31" s="71"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="109"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="12"/>
       <c r="G32" s="10"/>
       <c r="H32" s="39"/>
@@ -3780,13 +3775,13 @@
       <c r="Y32" s="61"/>
       <c r="Z32" s="61"/>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="72"/>
+      <c r="AB32" s="71"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="109"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="12"/>
       <c r="G33" s="10"/>
       <c r="H33" s="39"/>
@@ -3809,13 +3804,13 @@
       <c r="Y33" s="61"/>
       <c r="Z33" s="61"/>
       <c r="AA33" s="41"/>
-      <c r="AB33" s="72"/>
+      <c r="AB33" s="71"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="109"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="108"/>
       <c r="F34" s="12"/>
       <c r="G34" s="10"/>
       <c r="H34" s="39"/>
@@ -3838,13 +3833,13 @@
       <c r="Y34" s="61"/>
       <c r="Z34" s="61"/>
       <c r="AA34" s="41"/>
-      <c r="AB34" s="72"/>
+      <c r="AB34" s="71"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="109"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
       <c r="H35" s="39"/>
@@ -3867,13 +3862,13 @@
       <c r="Y35" s="61"/>
       <c r="Z35" s="61"/>
       <c r="AA35" s="41"/>
-      <c r="AB35" s="72"/>
+      <c r="AB35" s="71"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="109"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
       <c r="H36" s="39"/>
@@ -3896,13 +3891,13 @@
       <c r="Y36" s="61"/>
       <c r="Z36" s="61"/>
       <c r="AA36" s="41"/>
-      <c r="AB36" s="72"/>
+      <c r="AB36" s="71"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="109"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="108"/>
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
       <c r="H37" s="39"/>
@@ -3925,13 +3920,13 @@
       <c r="Y37" s="61"/>
       <c r="Z37" s="61"/>
       <c r="AA37" s="41"/>
-      <c r="AB37" s="72"/>
+      <c r="AB37" s="71"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="109"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="108"/>
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
       <c r="H38" s="39"/>
@@ -3954,13 +3949,13 @@
       <c r="Y38" s="61"/>
       <c r="Z38" s="61"/>
       <c r="AA38" s="41"/>
-      <c r="AB38" s="72"/>
+      <c r="AB38" s="71"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="109"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="108"/>
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
       <c r="H39" s="39"/>
@@ -3983,13 +3978,13 @@
       <c r="Y39" s="61"/>
       <c r="Z39" s="61"/>
       <c r="AA39" s="41"/>
-      <c r="AB39" s="72"/>
+      <c r="AB39" s="71"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="109"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="108"/>
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
       <c r="H40" s="39"/>
@@ -4012,13 +4007,13 @@
       <c r="Y40" s="61"/>
       <c r="Z40" s="61"/>
       <c r="AA40" s="41"/>
-      <c r="AB40" s="72"/>
+      <c r="AB40" s="71"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="109"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="108"/>
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
       <c r="H41" s="39"/>
@@ -4041,13 +4036,13 @@
       <c r="Y41" s="61"/>
       <c r="Z41" s="61"/>
       <c r="AA41" s="41"/>
-      <c r="AB41" s="72"/>
+      <c r="AB41" s="71"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="109"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
       <c r="H42" s="39"/>
@@ -4070,13 +4065,13 @@
       <c r="Y42" s="61"/>
       <c r="Z42" s="61"/>
       <c r="AA42" s="41"/>
-      <c r="AB42" s="72"/>
+      <c r="AB42" s="71"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="109"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="108"/>
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
       <c r="H43" s="39"/>
@@ -4099,13 +4094,13 @@
       <c r="Y43" s="61"/>
       <c r="Z43" s="61"/>
       <c r="AA43" s="41"/>
-      <c r="AB43" s="72"/>
+      <c r="AB43" s="71"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="109"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="108"/>
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
       <c r="H44" s="39"/>
@@ -4128,13 +4123,13 @@
       <c r="Y44" s="61"/>
       <c r="Z44" s="61"/>
       <c r="AA44" s="41"/>
-      <c r="AB44" s="72"/>
+      <c r="AB44" s="71"/>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="108"/>
       <c r="F45" s="12"/>
       <c r="G45" s="10"/>
       <c r="H45" s="39"/>
@@ -4157,13 +4152,13 @@
       <c r="Y45" s="61"/>
       <c r="Z45" s="61"/>
       <c r="AA45" s="41"/>
-      <c r="AB45" s="72"/>
+      <c r="AB45" s="71"/>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="109"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="108"/>
       <c r="F46" s="12"/>
       <c r="G46" s="10"/>
       <c r="H46" s="39"/>
@@ -4186,13 +4181,13 @@
       <c r="Y46" s="61"/>
       <c r="Z46" s="61"/>
       <c r="AA46" s="41"/>
-      <c r="AB46" s="72"/>
+      <c r="AB46" s="71"/>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="109"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="108"/>
       <c r="F47" s="12"/>
       <c r="G47" s="10"/>
       <c r="H47" s="39"/>
@@ -4215,13 +4210,13 @@
       <c r="Y47" s="61"/>
       <c r="Z47" s="61"/>
       <c r="AA47" s="41"/>
-      <c r="AB47" s="72"/>
+      <c r="AB47" s="71"/>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="109"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="108"/>
       <c r="F48" s="12"/>
       <c r="G48" s="10"/>
       <c r="H48" s="39"/>
@@ -4244,13 +4239,13 @@
       <c r="Y48" s="61"/>
       <c r="Z48" s="61"/>
       <c r="AA48" s="41"/>
-      <c r="AB48" s="72"/>
+      <c r="AB48" s="71"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="109"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="108"/>
       <c r="F49" s="12"/>
       <c r="G49" s="10"/>
       <c r="H49" s="39"/>
@@ -4273,13 +4268,13 @@
       <c r="Y49" s="61"/>
       <c r="Z49" s="61"/>
       <c r="AA49" s="41"/>
-      <c r="AB49" s="72"/>
+      <c r="AB49" s="71"/>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="109"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="108"/>
       <c r="F50" s="12"/>
       <c r="G50" s="10"/>
       <c r="H50" s="39"/>
@@ -4302,13 +4297,13 @@
       <c r="Y50" s="61"/>
       <c r="Z50" s="61"/>
       <c r="AA50" s="41"/>
-      <c r="AB50" s="72"/>
+      <c r="AB50" s="71"/>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="109"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="108"/>
       <c r="F51" s="12"/>
       <c r="G51" s="10"/>
       <c r="H51" s="39"/>
@@ -4331,13 +4326,13 @@
       <c r="Y51" s="61"/>
       <c r="Z51" s="61"/>
       <c r="AA51" s="41"/>
-      <c r="AB51" s="72"/>
+      <c r="AB51" s="71"/>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="109"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="108"/>
       <c r="F52" s="12"/>
       <c r="G52" s="10"/>
       <c r="H52" s="39"/>
@@ -4360,13 +4355,13 @@
       <c r="Y52" s="61"/>
       <c r="Z52" s="61"/>
       <c r="AA52" s="41"/>
-      <c r="AB52" s="72"/>
+      <c r="AB52" s="71"/>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="109"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="108"/>
       <c r="F53" s="12"/>
       <c r="G53" s="10"/>
       <c r="H53" s="39"/>
@@ -4389,13 +4384,13 @@
       <c r="Y53" s="61"/>
       <c r="Z53" s="61"/>
       <c r="AA53" s="41"/>
-      <c r="AB53" s="72"/>
+      <c r="AB53" s="71"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="109"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="108"/>
       <c r="F54" s="12"/>
       <c r="G54" s="10"/>
       <c r="H54" s="39"/>
@@ -4418,13 +4413,13 @@
       <c r="Y54" s="61"/>
       <c r="Z54" s="61"/>
       <c r="AA54" s="41"/>
-      <c r="AB54" s="72"/>
+      <c r="AB54" s="71"/>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="109"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="108"/>
       <c r="F55" s="12"/>
       <c r="G55" s="10"/>
       <c r="H55" s="39"/>
@@ -4447,13 +4442,13 @@
       <c r="Y55" s="61"/>
       <c r="Z55" s="61"/>
       <c r="AA55" s="41"/>
-      <c r="AB55" s="72"/>
+      <c r="AB55" s="71"/>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="109"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="108"/>
       <c r="F56" s="12"/>
       <c r="G56" s="10"/>
       <c r="H56" s="39"/>
@@ -4476,13 +4471,13 @@
       <c r="Y56" s="61"/>
       <c r="Z56" s="61"/>
       <c r="AA56" s="41"/>
-      <c r="AB56" s="72"/>
+      <c r="AB56" s="71"/>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="109"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="108"/>
       <c r="F57" s="12"/>
       <c r="G57" s="10"/>
       <c r="H57" s="39"/>
@@ -4505,10 +4500,10 @@
       <c r="Y57" s="61"/>
       <c r="Z57" s="61"/>
       <c r="AA57" s="41"/>
-      <c r="AB57" s="72"/>
+      <c r="AB57" s="71"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3c9ge7kjiL6EIIMGmfzh9VojpRWMUOkC4rbODdhKpLJ+nyrBfWtFmJwSI/Iig5HjcdP1HHGWsnoy8KSfspNSzg==" saltValue="YmuBhioQuDJ0g+y9jbZFSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rgIzjSsB98wv3MfUN56oImyOr8Z2pmQ2NEBKdNOGQ9GXs/Y6rMRej8g8dbYlCsFRSsDmNG4alS7EFFjk/vRfqg==" saltValue="4uNWjybE2OBEOIPlo/cTnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="AD3:DY3"/>
     <mergeCell ref="B2:AB3"/>
@@ -4534,16 +4529,15 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" location="FOBownerships" display="Ownership" xr:uid="{73E8C957-03AF-4579-8C48-31F89D03EC4F}"/>
-    <hyperlink ref="K7" r:id="rId2" location="FOBbuoyActivityTypes" xr:uid="{959EF245-C0B1-440F-9064-76CBE53740AB}"/>
-    <hyperlink ref="M7" r:id="rId3" location="FOBtypes" xr:uid="{0D9BDFCB-0E93-45FA-A9F8-2F2F4961FF03}"/>
-    <hyperlink ref="N7" r:id="rId4" location="FOBactivityTypes" xr:uid="{3C4B7339-15DC-4AE3-BA6F-6F6FE197BAF1}"/>
-    <hyperlink ref="AC6" r:id="rId5" location="raisings" xr:uid="{A80A0B5F-91B5-4F24-82CA-F4ED55F31384}"/>
-    <hyperlink ref="AC7" r:id="rId6" location="catchUnits" xr:uid="{CB8E1D12-F8A8-404C-8F09-27506E824907}"/>
-    <hyperlink ref="AC5" r:id="rId7" location="typesOfFate" xr:uid="{429FA315-D35E-430B-B16F-AFFF65DCB96E}"/>
-    <hyperlink ref="AC4" r:id="rId8" location="allSpecies" xr:uid="{ECADD488-F51B-467A-8AE5-D0932455B163}"/>
+    <hyperlink ref="K7" r:id="rId1" location="FOBbuoyActivityTypes" xr:uid="{959EF245-C0B1-440F-9064-76CBE53740AB}"/>
+    <hyperlink ref="M7" r:id="rId2" location="FOBtypes" xr:uid="{0D9BDFCB-0E93-45FA-A9F8-2F2F4961FF03}"/>
+    <hyperlink ref="N7" r:id="rId3" location="FOBactivityTypes" xr:uid="{3C4B7339-15DC-4AE3-BA6F-6F6FE197BAF1}"/>
+    <hyperlink ref="AC6" r:id="rId4" location="raisings" xr:uid="{A80A0B5F-91B5-4F24-82CA-F4ED55F31384}"/>
+    <hyperlink ref="AC7" r:id="rId5" location="catchUnits" xr:uid="{CB8E1D12-F8A8-404C-8F09-27506E824907}"/>
+    <hyperlink ref="AC5" r:id="rId6" location="typesOfFate" xr:uid="{429FA315-D35E-430B-B16F-AFFF65DCB96E}"/>
+    <hyperlink ref="AC4" r:id="rId7" location="allSpecies" xr:uid="{ECADD488-F51B-467A-8AE5-D0932455B163}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>